--- a/savedata.xlsx
+++ b/savedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>part_no</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>date_time</t>
+  </si>
+  <si>
+    <t>10335928</t>
+  </si>
+  <si>
+    <t>STRAIGHT PIN</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2025-03-01 14:23:31</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +442,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/savedata.xlsx
+++ b/savedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>part_no</t>
   </si>
@@ -43,19 +43,22 @@
     <t>STRAIGHT PIN</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>CNH</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2025-03-01 14:23:31</t>
+  </si>
+  <si>
+    <t>2025-03-05 18:34:01</t>
+  </si>
+  <si>
+    <t>2025-03-05 18:41:21</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,26 +446,72 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2">
+        <v>10335928</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/savedata.xlsx
+++ b/savedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>part_no</t>
   </si>
@@ -37,19 +37,16 @@
     <t>date_time</t>
   </si>
   <si>
-    <t>10335928</t>
+    <t>1</t>
   </si>
   <si>
     <t>STRAIGHT PIN</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CNH</t>
   </si>
   <si>
-    <t>2</t>
+    <t>11</t>
   </si>
   <si>
     <t>2025-03-01 14:23:31</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>2025-03-05 18:41:21</t>
+  </si>
+  <si>
+    <t>2025-03-06 15:03:43</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -488,29 +488,52 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4">
+        <v>10335928</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>

--- a/savedata.xlsx
+++ b/savedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>part_no</t>
   </si>
@@ -46,7 +46,7 @@
     <t>CNH</t>
   </si>
   <si>
-    <t>11</t>
+    <t>2</t>
   </si>
   <si>
     <t>2025-03-01 14:23:31</t>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>2025-03-06 15:03:43</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:28:14</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:28:26</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:29:09</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:29:30</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:31:27</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:31:30</t>
+  </si>
+  <si>
+    <t>2025-03-06 19:32:59</t>
   </si>
 </sst>
 </file>
@@ -416,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,8 +536,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -524,17 +545,178 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
